--- a/FEn17_data/NSFMacroInvertTaxaList.xlsx
+++ b/FEn17_data/NSFMacroInvertTaxaList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Dropbox (Personal)\NSF_Invert_Photos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\FEn17Git\FEn17\FEn17_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="549">
   <si>
     <t>Dip.ChironomidaeL</t>
   </si>
@@ -901,12 +901,6 @@
     <t>Ple.Perlidae</t>
   </si>
   <si>
-    <t>Od.Gomphidae</t>
-  </si>
-  <si>
-    <t>Od.Coenagrionidae</t>
-  </si>
-  <si>
     <t>2or4</t>
   </si>
   <si>
@@ -1646,22 +1640,50 @@
   </si>
   <si>
     <t>Tri.Leptoceridae</t>
+  </si>
+  <si>
+    <t>Tri.Molannidae</t>
+  </si>
+  <si>
+    <t>Molannidae</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>LeRoy Poff 2008</t>
+  </si>
+  <si>
+    <t>Od.Dragonfly</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>1,3,4,1</t>
+  </si>
+  <si>
+    <t>T.devlopmentrate</t>
+  </si>
+  <si>
+    <t>T.Lifespan</t>
+  </si>
+  <si>
+    <t>T.Habit</t>
+  </si>
+  <si>
+    <t>T.Trop</t>
+  </si>
+  <si>
+    <t>T.MatSize</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1738,30 +1760,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2088,21 +2109,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.36328125" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="1" max="1" width="24.36328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B1" t="s">
@@ -2114,9 +2136,27 @@
       <c r="D1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="E1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F1" t="s">
+        <v>545</v>
+      </c>
+      <c r="G1" t="s">
+        <v>546</v>
+      </c>
+      <c r="H1" t="s">
+        <v>547</v>
+      </c>
+      <c r="I1" t="s">
+        <v>548</v>
+      </c>
+      <c r="J1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -2128,9 +2168,27 @@
       <c r="D2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -2142,12 +2200,30 @@
       <c r="D3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C4" t="s">
@@ -2156,9 +2232,27 @@
       <c r="D4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -2170,9 +2264,27 @@
       <c r="D5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -2185,8 +2297,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -2199,8 +2311,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
@@ -2213,8 +2325,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -2226,9 +2338,27 @@
       <c r="D9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
@@ -2241,8 +2371,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
@@ -2254,9 +2384,27 @@
       <c r="D11" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
@@ -2269,8 +2417,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
@@ -2282,9 +2430,27 @@
       <c r="D13" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" s="8">
+        <v>4</v>
+      </c>
+      <c r="H13" s="8">
+        <v>2</v>
+      </c>
+      <c r="I13" s="8">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
@@ -2296,9 +2462,27 @@
       <c r="D14" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4</v>
+      </c>
+      <c r="H14" s="8">
+        <v>3</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
@@ -2310,9 +2494,27 @@
       <c r="D15" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" s="8">
+        <v>4</v>
+      </c>
+      <c r="H15" s="8">
+        <v>3</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
@@ -2324,9 +2526,27 @@
       <c r="D16" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="8">
+        <v>4</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="I16" s="8">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B17" t="s">
@@ -2339,8 +2559,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B18" t="s">
@@ -2352,9 +2572,27 @@
       <c r="D18" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
+        <v>4</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B19" t="s">
@@ -2366,9 +2604,27 @@
       <c r="D19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B20" t="s">
@@ -2380,9 +2636,27 @@
       <c r="D20" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B21" t="s">
@@ -2394,9 +2668,27 @@
       <c r="D21" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B22" t="s">
@@ -2409,8 +2701,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B23" t="s">
@@ -2422,9 +2714,27 @@
       <c r="D23" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
+        <v>3</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1</v>
+      </c>
+      <c r="I23" s="8">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B24" t="s">
@@ -2436,9 +2746,27 @@
       <c r="D24" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8">
+        <v>5</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1</v>
+      </c>
+      <c r="I24" s="8">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B25" t="s">
@@ -2450,9 +2778,27 @@
       <c r="D25" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" s="8">
+        <v>2</v>
+      </c>
+      <c r="H25" s="8">
+        <v>4</v>
+      </c>
+      <c r="I25" s="8">
+        <v>3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B26" t="s">
@@ -2464,9 +2810,27 @@
       <c r="D26" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+      <c r="H26" s="8">
+        <v>4</v>
+      </c>
+      <c r="I26" s="8">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B27" t="s">
@@ -2478,9 +2842,27 @@
       <c r="D27" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="E27">
+        <v>2.5</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" s="8">
+        <v>4</v>
+      </c>
+      <c r="H27" s="8">
+        <v>4</v>
+      </c>
+      <c r="I27" s="8">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B28" t="s">
@@ -2492,9 +2874,27 @@
       <c r="D28" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" s="8">
+        <v>4</v>
+      </c>
+      <c r="H28" s="8">
+        <v>4</v>
+      </c>
+      <c r="I28" s="8">
+        <v>3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B29" t="s">
@@ -2506,9 +2906,24 @@
       <c r="D29" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29" s="8">
+        <v>4</v>
+      </c>
+      <c r="H29" s="8">
+        <v>3</v>
+      </c>
+      <c r="I29" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B30" t="s">
@@ -2520,9 +2935,24 @@
       <c r="D30" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B31" t="s">
@@ -2534,9 +2964,24 @@
       <c r="D31" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B32" t="s">
@@ -2548,9 +2993,24 @@
       <c r="D32" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B33" t="s">
@@ -2563,8 +3023,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B34" t="s">
@@ -2577,8 +3037,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B35" t="s">
@@ -2591,8 +3051,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B36" t="s">
@@ -2605,8 +3065,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B37" t="s">
@@ -2619,8 +3079,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B38" t="s">
@@ -2633,8 +3093,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B39" t="s">
@@ -2647,8 +3107,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B40" t="s">
@@ -2661,8 +3121,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B41" t="s">
@@ -2675,8 +3135,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B42" t="s">
@@ -2689,8 +3149,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B43" t="s">
@@ -2703,8 +3163,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B44" t="s">
@@ -2716,9 +3176,12 @@
       <c r="D44" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="H44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B45" t="s">
@@ -2730,9 +3193,12 @@
       <c r="D45" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="H45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B46" t="s">
@@ -2745,8 +3211,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B47" t="s">
@@ -2759,8 +3225,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
         <v>84</v>
       </c>
       <c r="B48" t="s">
@@ -2773,8 +3239,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B49" t="s">
@@ -2787,8 +3253,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B50" t="s">
@@ -2801,8 +3267,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="11" t="s">
         <v>122</v>
       </c>
       <c r="B51" t="s">
@@ -2815,8 +3281,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B52" t="s">
@@ -2829,8 +3295,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B53" t="s">
@@ -2843,8 +3309,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B54" t="s">
@@ -2857,8 +3323,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="11" t="s">
         <v>124</v>
       </c>
       <c r="B55" t="s">
@@ -2871,8 +3337,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B56" t="s">
@@ -2885,8 +3351,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="11" t="s">
         <v>126</v>
       </c>
       <c r="B57" t="s">
@@ -2899,12 +3365,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>386</v>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="11" t="s">
+        <v>384</v>
       </c>
       <c r="B58" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C58" t="s">
         <v>75</v>
@@ -2913,33 +3379,36 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C60" t="s">
+        <v>531</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" s="11" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="12" t="s">
-        <v>538</v>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" s="11" t="s">
+        <v>536</v>
       </c>
       <c r="B62" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C62" t="s">
         <v>98</v>
@@ -2947,9 +3416,42 @@
       <c r="D62" t="s">
         <v>96</v>
       </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62" t="s">
+        <v>542</v>
+      </c>
+      <c r="H62" t="s">
+        <v>543</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="B63" t="s">
+        <v>538</v>
+      </c>
+      <c r="C63" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2995,7 +3497,7 @@
       <c r="A2" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>278</v>
       </c>
       <c r="C2" t="s">
@@ -3019,7 +3521,7 @@
       <c r="A3" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>275</v>
       </c>
       <c r="C3" t="s">
@@ -3040,10 +3542,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>272</v>
       </c>
       <c r="C4" t="s">
@@ -3061,10 +3563,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C5" t="s">
@@ -3088,7 +3590,7 @@
       <c r="A6" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>263</v>
       </c>
       <c r="C6" t="s">
@@ -3112,7 +3614,7 @@
       <c r="A7" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>261</v>
       </c>
       <c r="C7" t="s">
@@ -3136,7 +3638,7 @@
       <c r="A8" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>259</v>
       </c>
       <c r="C8" t="s">
@@ -3160,7 +3662,7 @@
       <c r="A9" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>257</v>
       </c>
       <c r="C9" t="s">
@@ -3184,7 +3686,7 @@
       <c r="A10" t="s">
         <v>255</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>254</v>
       </c>
       <c r="C10" t="s">
@@ -3205,7 +3707,7 @@
       <c r="A11" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>251</v>
       </c>
       <c r="C11" t="s">
@@ -3229,7 +3731,7 @@
       <c r="A12" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C12" t="s">
@@ -3253,7 +3755,7 @@
       <c r="A13" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>247</v>
       </c>
       <c r="C13" t="s">
@@ -3277,7 +3779,7 @@
       <c r="A14" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>245</v>
       </c>
       <c r="C14" t="s">
@@ -3301,7 +3803,7 @@
       <c r="A15" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>243</v>
       </c>
       <c r="C15" t="s">
@@ -3325,7 +3827,7 @@
       <c r="A16" t="s">
         <v>239</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>241</v>
       </c>
       <c r="C16" t="s">
@@ -3346,7 +3848,7 @@
       <c r="A17" t="s">
         <v>239</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>238</v>
       </c>
       <c r="C17" t="s">
@@ -3367,7 +3869,7 @@
       <c r="A18" t="s">
         <v>236</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C18" t="s">
@@ -3388,7 +3890,7 @@
       <c r="A19" t="s">
         <v>232</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>231</v>
       </c>
       <c r="C19" t="s">
@@ -3409,7 +3911,7 @@
       <c r="A20" t="s">
         <v>134</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C20" t="s">
@@ -3433,7 +3935,7 @@
       <c r="A21" t="s">
         <v>225</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C21" t="s">
@@ -3457,7 +3959,7 @@
       <c r="A22" t="s">
         <v>220</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C22" t="s">
@@ -3481,7 +3983,7 @@
       <c r="A23" t="s">
         <v>183</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C23" t="s">
@@ -3505,7 +4007,7 @@
       <c r="A24" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C24" t="s">
@@ -3529,7 +4031,7 @@
       <c r="A25" t="s">
         <v>183</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C25" t="s">
@@ -3553,7 +4055,7 @@
       <c r="A26" t="s">
         <v>183</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C26" t="s">
@@ -3577,7 +4079,7 @@
       <c r="A27" t="s">
         <v>183</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C27" t="s">
@@ -3601,7 +4103,7 @@
       <c r="A28" t="s">
         <v>183</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C28" t="s">
@@ -3625,7 +4127,7 @@
       <c r="A29" t="s">
         <v>183</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C29" t="s">
@@ -3649,7 +4151,7 @@
       <c r="A30" t="s">
         <v>139</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C30" t="s">
@@ -3673,7 +4175,7 @@
       <c r="A31" t="s">
         <v>139</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C31" t="s">
@@ -3697,7 +4199,7 @@
       <c r="A32" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C32" t="s">
@@ -3721,7 +4223,7 @@
       <c r="A33" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C33" t="s">
@@ -3745,7 +4247,7 @@
       <c r="A34" t="s">
         <v>183</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C34" t="s">
@@ -3769,7 +4271,7 @@
       <c r="A35" t="s">
         <v>183</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>182</v>
       </c>
       <c r="C35" t="s">
@@ -3793,7 +4295,7 @@
       <c r="A36" t="s">
         <v>178</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C36" t="s">
@@ -3814,7 +4316,7 @@
       <c r="A37" t="s">
         <v>174</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C37" t="s">
@@ -3835,7 +4337,7 @@
       <c r="A38" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C38" t="s">
@@ -3859,7 +4361,7 @@
       <c r="A39" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C39" t="s">
@@ -3883,7 +4385,7 @@
       <c r="A40" t="s">
         <v>134</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C40" t="s">
@@ -3907,7 +4409,7 @@
       <c r="A41" t="s">
         <v>134</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C41" t="s">
@@ -3931,7 +4433,7 @@
       <c r="A42" t="s">
         <v>139</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C42" t="s">
@@ -3955,7 +4457,7 @@
       <c r="A43" t="s">
         <v>139</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C43" t="s">
@@ -3979,7 +4481,7 @@
       <c r="A44" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C44" t="s">
@@ -4003,7 +4505,7 @@
       <c r="A45" t="s">
         <v>147</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C45" t="s">
@@ -4027,7 +4529,7 @@
       <c r="A46" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C46" t="s">
@@ -4051,7 +4553,7 @@
       <c r="A47" t="s">
         <v>147</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C47" t="s">
@@ -4075,7 +4577,7 @@
       <c r="A48" t="s">
         <v>147</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C48" t="s">
@@ -4099,7 +4601,7 @@
       <c r="A49" t="s">
         <v>147</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C49" t="s">
@@ -4123,7 +4625,7 @@
       <c r="A50" t="s">
         <v>139</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C50" t="s">
@@ -4144,7 +4646,7 @@
       <c r="A51" t="s">
         <v>139</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C51" t="s">
@@ -4165,7 +4667,7 @@
       <c r="A52" t="s">
         <v>134</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C52" t="s">
@@ -4195,8 +4697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A9" sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4204,27 +4706,30 @@
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3">
@@ -4234,39 +4739,117 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="E5">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B9">
@@ -4281,29 +4864,53 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B14">
@@ -4312,15 +4919,18 @@
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>4</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="G14" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B15">
@@ -4329,15 +4939,18 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>4</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="G15" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B16">
@@ -4346,15 +4959,18 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>4</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>3</v>
       </c>
+      <c r="G16" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B17">
@@ -4363,15 +4979,19 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>4</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>292</v>
+      <c r="E17" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B18">
@@ -4380,15 +5000,21 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>4</v>
       </c>
-      <c r="E18" s="9">
-        <v>1</v>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B19">
@@ -4403,9 +5029,15 @@
       <c r="E19">
         <v>3</v>
       </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B20">
@@ -4414,15 +5046,21 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>4.5</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B21">
@@ -4431,20 +5069,26 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="9">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9">
-        <v>1</v>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B23">
@@ -4453,15 +5097,15 @@
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>3</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B24">
@@ -4470,16 +5114,19 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>5</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
-        <v>291</v>
+      <c r="A25" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -4487,16 +5134,16 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>2</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
-        <v>290</v>
+      <c r="A26" s="6" t="s">
+        <v>541</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -4504,15 +5151,15 @@
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26" s="9">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>289</v>
       </c>
       <c r="B27">
@@ -4521,15 +5168,15 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>4</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B28">
@@ -4538,26 +5185,26 @@
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>4</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>4</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D30">
@@ -4566,10 +5213,10 @@
       <c r="E30">
         <v>3</v>
       </c>
-      <c r="H30" s="6"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C31">
@@ -4581,10 +5228,10 @@
       <c r="E31">
         <v>2</v>
       </c>
-      <c r="H31" s="6"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C32">
@@ -4596,97 +5243,97 @@
       <c r="E32">
         <v>2</v>
       </c>
-      <c r="H32" s="6"/>
+      <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="H33" s="6"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H34" s="6"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H35" s="6"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H36" s="6"/>
+      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H37" s="6"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H38" s="6"/>
+      <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H39" s="6"/>
+      <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="H40" s="6"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="6"/>
+      <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H42" s="6"/>
+      <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H43" s="6"/>
+      <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="6" t="s">
         <v>112</v>
       </c>
       <c r="E44">
         <v>6</v>
       </c>
-      <c r="H44" s="6"/>
+      <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>286</v>
       </c>
       <c r="E45">
         <v>6</v>
       </c>
-      <c r="H45" s="6"/>
+      <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="H46" s="6"/>
+      <c r="H46" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4705,215 +5352,215 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C18" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -4921,37 +5568,37 @@
         <v>197</v>
       </c>
       <c r="B22" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B23" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B25" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4976,312 +5623,312 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>383</v>
+      <c r="A2" s="9" t="s">
+        <v>381</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>379</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
+      <c r="A3" s="9"/>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>379</v>
-      </c>
-      <c r="D3" s="11"/>
+        <v>377</v>
+      </c>
+      <c r="D3" s="10"/>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D4" s="11"/>
+        <v>375</v>
+      </c>
+      <c r="D4" s="10"/>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>375</v>
+      <c r="A5" s="9" t="s">
+        <v>373</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>374</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>371</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+      <c r="A6" s="9"/>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>371</v>
-      </c>
-      <c r="D6" s="11"/>
+        <v>369</v>
+      </c>
+      <c r="D6" s="10"/>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>369</v>
-      </c>
-      <c r="D7" s="11"/>
+        <v>367</v>
+      </c>
+      <c r="D7" s="10"/>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>367</v>
+      <c r="A8" s="9" t="s">
+        <v>365</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>363</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
+      <c r="A9" s="9"/>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>363</v>
-      </c>
-      <c r="D9" s="11"/>
+        <v>361</v>
+      </c>
+      <c r="D9" s="10"/>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
-        <v>361</v>
+      <c r="A10" s="9" t="s">
+        <v>359</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>360</v>
-      </c>
-      <c r="D10" s="11"/>
+        <v>358</v>
+      </c>
+      <c r="D10" s="10"/>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
+      <c r="A11" s="9"/>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>358</v>
-      </c>
-      <c r="D11" s="11"/>
+        <v>356</v>
+      </c>
+      <c r="D11" s="10"/>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
+      <c r="A12" s="9"/>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>356</v>
-      </c>
-      <c r="D12" s="11"/>
+        <v>354</v>
+      </c>
+      <c r="D12" s="10"/>
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
+      <c r="A13" s="9"/>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>354</v>
-      </c>
-      <c r="D13" s="11"/>
+        <v>352</v>
+      </c>
+      <c r="D13" s="10"/>
       <c r="E13">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>352</v>
+      <c r="A14" s="9" t="s">
+        <v>350</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>347</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>351</v>
+        <v>345</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>349</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
+      <c r="A15" s="9"/>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>345</v>
-      </c>
-      <c r="D15" s="11"/>
+        <v>343</v>
+      </c>
+      <c r="D15" s="10"/>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>348</v>
+      <c r="A16" s="9" t="s">
+        <v>346</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>347</v>
-      </c>
-      <c r="D16" s="11"/>
+        <v>345</v>
+      </c>
+      <c r="D16" s="10"/>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
+      <c r="A17" s="9"/>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>345</v>
-      </c>
-      <c r="D17" s="11"/>
+        <v>343</v>
+      </c>
+      <c r="D17" s="10"/>
       <c r="E17">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D18" s="11"/>
+      <c r="D18" s="10"/>
       <c r="E18">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D19" s="11"/>
+      <c r="D19" s="10"/>
       <c r="E19">
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D20" s="6"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -5307,7 +5954,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5324,16 +5971,16 @@
         <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -5341,13 +5988,13 @@
         <v>288</v>
       </c>
       <c r="C2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F2">
         <v>1979</v>
@@ -5358,10 +6005,10 @@
         <v>288</v>
       </c>
       <c r="C3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F3">
         <v>1979</v>
@@ -5372,13 +6019,13 @@
         <v>288</v>
       </c>
       <c r="C4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F4">
         <v>1979</v>
@@ -5389,13 +6036,13 @@
         <v>288</v>
       </c>
       <c r="C5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F5">
         <v>1979</v>
@@ -5406,13 +6053,13 @@
         <v>288</v>
       </c>
       <c r="C6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F6">
         <v>1979</v>
@@ -5423,13 +6070,13 @@
         <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F7">
         <v>1979</v>
@@ -5440,10 +6087,10 @@
         <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F8">
         <v>1979</v>
@@ -5454,13 +6101,13 @@
         <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F9">
         <v>1979</v>
@@ -5471,10 +6118,10 @@
         <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F10">
         <v>1979</v>
@@ -5485,10 +6132,10 @@
         <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F11">
         <v>1979</v>
@@ -5502,7 +6149,7 @@
         <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F12">
         <v>1979</v>
@@ -5513,10 +6160,10 @@
         <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F13">
         <v>1979</v>
@@ -5527,10 +6174,10 @@
         <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F14">
         <v>1979</v>
@@ -5541,10 +6188,10 @@
         <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F15">
         <v>1979</v>
@@ -5555,10 +6202,10 @@
         <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E16" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F16">
         <v>1979</v>
@@ -5569,10 +6216,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F17">
         <v>1979</v>
@@ -5583,13 +6230,13 @@
         <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E18" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F18">
         <v>1979</v>
@@ -5600,13 +6247,13 @@
         <v>75</v>
       </c>
       <c r="C19" t="s">
+        <v>415</v>
+      </c>
+      <c r="D19" t="s">
         <v>417</v>
       </c>
-      <c r="D19" t="s">
-        <v>419</v>
-      </c>
       <c r="E19" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F19">
         <v>1979</v>
@@ -5617,10 +6264,10 @@
         <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E20" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F20">
         <v>1979</v>
@@ -5631,10 +6278,10 @@
         <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F21">
         <v>1979</v>
@@ -5645,10 +6292,10 @@
         <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E22" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F22">
         <v>1979</v>
@@ -5659,10 +6306,10 @@
         <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E23" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F23">
         <v>1979</v>
@@ -5673,10 +6320,10 @@
         <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E24" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F24">
         <v>1979</v>
@@ -5687,10 +6334,10 @@
         <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E25" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F25">
         <v>1979</v>
@@ -5701,13 +6348,13 @@
         <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D26" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E26" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F26">
         <v>1979</v>
@@ -5718,10 +6365,10 @@
         <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E27" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F27">
         <v>1979</v>
@@ -5732,10 +6379,10 @@
         <v>75</v>
       </c>
       <c r="C28" t="s">
+        <v>426</v>
+      </c>
+      <c r="E28" t="s">
         <v>428</v>
-      </c>
-      <c r="E28" t="s">
-        <v>430</v>
       </c>
       <c r="F28">
         <v>1979</v>
@@ -5746,10 +6393,10 @@
         <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E29" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F29">
         <v>1979</v>
@@ -5760,19 +6407,19 @@
         <v>98</v>
       </c>
       <c r="B30" t="s">
+        <v>447</v>
+      </c>
+      <c r="C30" t="s">
+        <v>448</v>
+      </c>
+      <c r="E30" t="s">
         <v>449</v>
-      </c>
-      <c r="C30" t="s">
-        <v>450</v>
-      </c>
-      <c r="E30" t="s">
-        <v>451</v>
       </c>
       <c r="F30">
         <v>2008</v>
       </c>
       <c r="G30" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -5780,16 +6427,16 @@
         <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E31" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F31">
         <v>2008</v>
       </c>
       <c r="G31" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -5797,19 +6444,19 @@
         <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C32" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E32" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F32">
         <v>2008</v>
       </c>
       <c r="G32" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -5817,19 +6464,19 @@
         <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C33" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E33" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F33">
         <v>2008</v>
       </c>
       <c r="G33" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -5840,16 +6487,16 @@
         <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E34" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F34">
         <v>2008</v>
       </c>
       <c r="G34" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -5860,13 +6507,13 @@
         <v>54</v>
       </c>
       <c r="E35" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F35">
         <v>2008</v>
       </c>
       <c r="G35" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -5877,16 +6524,16 @@
         <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E36" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F36">
         <v>2008</v>
       </c>
       <c r="G36" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -5897,16 +6544,16 @@
         <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E37" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F37">
         <v>2008</v>
       </c>
       <c r="G37" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -5917,13 +6564,13 @@
         <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F38">
         <v>2008</v>
       </c>
       <c r="G38" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -5934,16 +6581,16 @@
         <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E39" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F39">
         <v>2008</v>
       </c>
       <c r="G39" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -5954,16 +6601,16 @@
         <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E40" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F40">
         <v>2008</v>
       </c>
       <c r="G40" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -5974,16 +6621,16 @@
         <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E41" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F41">
         <v>2008</v>
       </c>
       <c r="G41" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -5994,16 +6641,16 @@
         <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E42" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F42">
         <v>2008</v>
       </c>
       <c r="G42" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -6011,19 +6658,19 @@
         <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C43" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E43" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F43">
         <v>2008</v>
       </c>
       <c r="G43" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -6031,19 +6678,19 @@
         <v>98</v>
       </c>
       <c r="B44" t="s">
+        <v>434</v>
+      </c>
+      <c r="C44" t="s">
         <v>436</v>
       </c>
-      <c r="C44" t="s">
-        <v>438</v>
-      </c>
       <c r="E44" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F44">
         <v>2008</v>
       </c>
       <c r="G44" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -6051,16 +6698,16 @@
         <v>98</v>
       </c>
       <c r="B45" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F45">
         <v>2008</v>
       </c>
       <c r="G45" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -6068,19 +6715,19 @@
         <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C46" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E46" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F46">
         <v>2008</v>
       </c>
       <c r="G46" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -6088,19 +6735,19 @@
         <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C47" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E47" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F47">
         <v>2008</v>
       </c>
       <c r="G47" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -6108,19 +6755,19 @@
         <v>98</v>
       </c>
       <c r="B48" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C48" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E48" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F48">
         <v>2008</v>
       </c>
       <c r="G48" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -6128,16 +6775,16 @@
         <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E49" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F49">
         <v>2008</v>
       </c>
       <c r="G49" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -6145,19 +6792,19 @@
         <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C50" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E50" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F50">
         <v>2008</v>
       </c>
       <c r="G50" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -6165,19 +6812,19 @@
         <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C51" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E51" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F51">
         <v>2008</v>
       </c>
       <c r="G51" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -6185,13 +6832,13 @@
         <v>78</v>
       </c>
       <c r="B52" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C52" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E52" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F52">
         <v>2004</v>
@@ -6202,13 +6849,13 @@
         <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C53" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E53" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F53">
         <v>2004</v>
@@ -6222,10 +6869,10 @@
         <v>116</v>
       </c>
       <c r="C54" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E54" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F54">
         <v>2004</v>
@@ -6239,10 +6886,10 @@
         <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E55" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F55">
         <v>2004</v>
@@ -6256,10 +6903,10 @@
         <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E56" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F56">
         <v>2004</v>
@@ -6273,10 +6920,10 @@
         <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E57" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F57">
         <v>2004</v>
@@ -6290,10 +6937,10 @@
         <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E58" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F58">
         <v>2004</v>
@@ -6304,10 +6951,10 @@
         <v>288</v>
       </c>
       <c r="C59" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E59" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F59">
         <v>2004</v>
@@ -6315,10 +6962,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E60" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F60">
         <v>2004</v>
@@ -6326,10 +6973,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C61" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E61" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F61">
         <v>2004</v>
@@ -6337,10 +6984,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E62" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F62">
         <v>2004</v>
@@ -6348,10 +6995,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C63" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E63" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F63">
         <v>2004</v>
@@ -6359,10 +7006,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C64" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E64" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F64">
         <v>2004</v>
@@ -6373,10 +7020,10 @@
         <v>101</v>
       </c>
       <c r="C65" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E65" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F65">
         <v>2004</v>
@@ -6387,13 +7034,13 @@
         <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C66" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E66" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F66">
         <v>2004</v>
@@ -6404,13 +7051,13 @@
         <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C67" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E67" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F67">
         <v>2004</v>
@@ -6421,13 +7068,13 @@
         <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C68" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E68" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F68">
         <v>2004</v>
@@ -6441,10 +7088,10 @@
         <v>48</v>
       </c>
       <c r="C69" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E69" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F69">
         <v>2004</v>
@@ -6458,10 +7105,10 @@
         <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E70" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F70">
         <v>2004</v>
@@ -6475,10 +7122,10 @@
         <v>48</v>
       </c>
       <c r="C71" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F71">
         <v>2004</v>
@@ -6492,10 +7139,10 @@
         <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E72" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F72">
         <v>2004</v>
@@ -6506,10 +7153,10 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E73" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F73">
         <v>2004</v>
@@ -6517,10 +7164,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E74" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F74">
         <v>2004</v>
@@ -6528,10 +7175,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E75" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F75">
         <v>2004</v>
@@ -6539,10 +7186,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E76" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F76">
         <v>2004</v>
@@ -6550,22 +7197,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>531</v>
+      </c>
+      <c r="B77" t="s">
+        <v>532</v>
+      </c>
+      <c r="C77" t="s">
+        <v>503</v>
+      </c>
+      <c r="E77" t="s">
+        <v>525</v>
+      </c>
+      <c r="F77">
+        <v>2004</v>
+      </c>
+      <c r="G77" t="s">
         <v>533</v>
-      </c>
-      <c r="B77" t="s">
-        <v>534</v>
-      </c>
-      <c r="C77" t="s">
-        <v>505</v>
-      </c>
-      <c r="E77" t="s">
-        <v>527</v>
-      </c>
-      <c r="F77">
-        <v>2004</v>
-      </c>
-      <c r="G77" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -6576,10 +7223,10 @@
         <v>48</v>
       </c>
       <c r="C78" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E78" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F78">
         <v>2004</v>
@@ -6593,10 +7240,10 @@
         <v>63</v>
       </c>
       <c r="C79" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E79" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F79">
         <v>2004</v>
@@ -6604,10 +7251,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C80" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E80" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F80">
         <v>2004</v>
@@ -6621,10 +7268,10 @@
         <v>48</v>
       </c>
       <c r="C81" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E81" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F81">
         <v>2004</v>
@@ -6638,16 +7285,16 @@
         <v>48</v>
       </c>
       <c r="C82" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E82" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F82">
         <v>2004</v>
       </c>
       <c r="G82" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -6658,16 +7305,16 @@
         <v>48</v>
       </c>
       <c r="C83" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E83" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F83">
         <v>2004</v>
       </c>
       <c r="G83" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -6678,10 +7325,10 @@
         <v>48</v>
       </c>
       <c r="C84" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E84" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F84">
         <v>2004</v>
@@ -6692,10 +7339,10 @@
         <v>288</v>
       </c>
       <c r="C85" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E85" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F85">
         <v>2004</v>
@@ -6706,10 +7353,10 @@
         <v>288</v>
       </c>
       <c r="C86" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E86" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F86">
         <v>2004</v>
@@ -6720,13 +7367,13 @@
         <v>101</v>
       </c>
       <c r="B87" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C87" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E87" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F87">
         <v>2004</v>
@@ -6740,10 +7387,10 @@
         <v>48</v>
       </c>
       <c r="C88" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E88" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F88">
         <v>2004</v>
@@ -6757,10 +7404,10 @@
         <v>48</v>
       </c>
       <c r="C89" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E89" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F89">
         <v>2004</v>
@@ -6768,10 +7415,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C90" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E90" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F90">
         <v>2004</v>
@@ -6779,10 +7426,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C91" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E91" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F91">
         <v>2004</v>
@@ -6790,10 +7437,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C92" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E92" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F92">
         <v>2004</v>
@@ -6801,10 +7448,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C93" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E93" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F93">
         <v>2004</v>
@@ -6812,10 +7459,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C94" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E94" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F94">
         <v>2004</v>
@@ -6823,10 +7470,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C95" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E95" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F95">
         <v>2004</v>
@@ -6834,10 +7481,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C96" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E96" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F96">
         <v>2004</v>
@@ -6845,10 +7492,10 @@
     </row>
     <row r="97" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C97" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E97" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F97">
         <v>2004</v>
@@ -6856,10 +7503,10 @@
     </row>
     <row r="98" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C98" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E98" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F98">
         <v>2004</v>
@@ -6867,10 +7514,10 @@
     </row>
     <row r="99" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C99" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E99" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F99">
         <v>2004</v>
@@ -6881,7 +7528,7 @@
         <v>48</v>
       </c>
       <c r="E100" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F100">
         <v>2004</v>
@@ -6889,10 +7536,10 @@
     </row>
     <row r="101" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C101" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E101" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F101">
         <v>2004</v>
@@ -6903,7 +7550,7 @@
         <v>67</v>
       </c>
       <c r="E102" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F102">
         <v>2004</v>
@@ -6911,10 +7558,10 @@
     </row>
     <row r="103" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C103" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E103" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F103">
         <v>2004</v>
@@ -6922,10 +7569,10 @@
     </row>
     <row r="104" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C104" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E104" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F104">
         <v>2004</v>
@@ -6933,10 +7580,10 @@
     </row>
     <row r="105" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C105" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E105" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F105">
         <v>2004</v>
@@ -6944,10 +7591,10 @@
     </row>
     <row r="106" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C106" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E106" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F106">
         <v>2004</v>
@@ -6955,10 +7602,10 @@
     </row>
     <row r="107" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C107" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E107" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F107">
         <v>2004</v>
@@ -6966,10 +7613,10 @@
     </row>
     <row r="108" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C108" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E108" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F108">
         <v>2004</v>
@@ -6977,10 +7624,10 @@
     </row>
     <row r="109" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C109" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E109" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F109">
         <v>2004</v>
@@ -6988,10 +7635,10 @@
     </row>
     <row r="110" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C110" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E110" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F110">
         <v>2004</v>
@@ -6999,10 +7646,10 @@
     </row>
     <row r="111" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C111" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E111" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F111">
         <v>2004</v>
@@ -7010,10 +7657,10 @@
     </row>
     <row r="112" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C112" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E112" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F112">
         <v>2004</v>
@@ -7021,10 +7668,10 @@
     </row>
     <row r="113" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C113" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E113" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F113">
         <v>2004</v>
@@ -7032,10 +7679,10 @@
     </row>
     <row r="114" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C114" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E114" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F114">
         <v>2004</v>
@@ -7043,10 +7690,10 @@
     </row>
     <row r="115" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C115" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E115" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F115">
         <v>2004</v>
@@ -7054,10 +7701,10 @@
     </row>
     <row r="116" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C116" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E116" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F116">
         <v>2004</v>
@@ -7065,10 +7712,10 @@
     </row>
     <row r="117" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C117" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E117" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F117">
         <v>2004</v>
@@ -7076,10 +7723,10 @@
     </row>
     <row r="118" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C118" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E118" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F118">
         <v>2004</v>
@@ -7087,10 +7734,10 @@
     </row>
     <row r="119" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C119" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E119" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F119">
         <v>2004</v>
@@ -7098,10 +7745,10 @@
     </row>
     <row r="120" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C120" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E120" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F120">
         <v>2004</v>
@@ -7109,10 +7756,10 @@
     </row>
     <row r="121" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C121" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E121" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F121">
         <v>2004</v>
@@ -7120,10 +7767,10 @@
     </row>
     <row r="122" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C122" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E122" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F122">
         <v>2004</v>
@@ -7131,10 +7778,10 @@
     </row>
     <row r="123" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C123" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E123" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F123">
         <v>2004</v>
@@ -7142,10 +7789,10 @@
     </row>
     <row r="124" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C124" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E124" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F124">
         <v>2004</v>
@@ -7153,10 +7800,10 @@
     </row>
     <row r="125" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C125" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E125" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F125">
         <v>2004</v>
@@ -7164,10 +7811,10 @@
     </row>
     <row r="126" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C126" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E126" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F126">
         <v>2004</v>
@@ -7175,10 +7822,10 @@
     </row>
     <row r="127" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C127" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E127" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F127">
         <v>2004</v>
@@ -7186,10 +7833,10 @@
     </row>
     <row r="128" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C128" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E128" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F128">
         <v>2004</v>
@@ -7197,10 +7844,10 @@
     </row>
     <row r="129" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C129" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E129" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F129">
         <v>2004</v>
@@ -7208,10 +7855,10 @@
     </row>
     <row r="130" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C130" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E130" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F130">
         <v>2004</v>
@@ -7219,10 +7866,10 @@
     </row>
     <row r="131" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C131" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E131" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F131">
         <v>2004</v>
@@ -7230,10 +7877,10 @@
     </row>
     <row r="132" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C132" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E132" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F132">
         <v>2004</v>
@@ -7241,10 +7888,10 @@
     </row>
     <row r="133" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C133" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E133" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F133">
         <v>2004</v>
@@ -7252,10 +7899,10 @@
     </row>
     <row r="134" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C134" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E134" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F134">
         <v>2004</v>
@@ -7263,10 +7910,10 @@
     </row>
     <row r="135" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C135" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E135" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F135">
         <v>2004</v>
@@ -7274,10 +7921,10 @@
     </row>
     <row r="136" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C136" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E136" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F136">
         <v>2004</v>
@@ -7285,10 +7932,10 @@
     </row>
     <row r="137" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C137" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E137" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F137">
         <v>2004</v>
@@ -7296,10 +7943,10 @@
     </row>
     <row r="138" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C138" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E138" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F138">
         <v>2004</v>
@@ -7307,10 +7954,10 @@
     </row>
     <row r="139" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C139" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E139" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F139">
         <v>2004</v>
@@ -7318,10 +7965,10 @@
     </row>
     <row r="140" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C140" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E140" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F140">
         <v>2004</v>
@@ -7329,10 +7976,10 @@
     </row>
     <row r="141" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C141" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E141" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F141">
         <v>2004</v>
@@ -7340,10 +7987,10 @@
     </row>
     <row r="142" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C142" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E142" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F142">
         <v>2004</v>

--- a/FEn17_data/NSFMacroInvertTaxaList.xlsx
+++ b/FEn17_data/NSFMacroInvertTaxaList.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="517">
   <si>
     <t>Dip.ChironomidaeL</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Tri.Polycentropidae</t>
   </si>
   <si>
-    <t>Tri.Pupa</t>
-  </si>
-  <si>
     <t>Eph.Trcorythidae</t>
   </si>
   <si>
@@ -130,42 +127,21 @@
     <t>Entom.Isotomidae</t>
   </si>
   <si>
-    <t>Amphipoda.miscA</t>
-  </si>
-  <si>
     <t>Cladocera.miscD</t>
   </si>
   <si>
-    <t>Copepoda.miscC</t>
-  </si>
-  <si>
-    <t>Isopoda.miscI</t>
-  </si>
-  <si>
     <t>Hydrozoans.miscH</t>
   </si>
   <si>
     <t>Lep.Pyralidae</t>
   </si>
   <si>
-    <t>Hymenoptera.miscH</t>
-  </si>
-  <si>
-    <t>Dip.Ascillidae</t>
-  </si>
-  <si>
     <t>Arguloida.Arguilidae</t>
   </si>
   <si>
     <t>Hirudinea.leach</t>
   </si>
   <si>
-    <t>Hem.Gerridae</t>
-  </si>
-  <si>
-    <t>Other.other</t>
-  </si>
-  <si>
     <t>Taxa</t>
   </si>
   <si>
@@ -181,18 +157,9 @@
     <t>Tupulidae</t>
   </si>
   <si>
-    <t>Culicidae</t>
-  </si>
-  <si>
-    <t>Similidae</t>
-  </si>
-  <si>
     <t>Psephenidae</t>
   </si>
   <si>
-    <t>Hydrophilidae</t>
-  </si>
-  <si>
     <t>Hydropsychidae</t>
   </si>
   <si>
@@ -214,12 +181,6 @@
     <t>Polymitarcyidae</t>
   </si>
   <si>
-    <t>Potamanthidae</t>
-  </si>
-  <si>
-    <t>Baetiscidae</t>
-  </si>
-  <si>
     <t>Baetidae</t>
   </si>
   <si>
@@ -235,18 +196,12 @@
     <t>Corbicula</t>
   </si>
   <si>
-    <t>Unionidae</t>
-  </si>
-  <si>
     <t>Hydracarina</t>
   </si>
   <si>
     <t>Isotomidae</t>
   </si>
   <si>
-    <t>Pyralidae</t>
-  </si>
-  <si>
     <t>Ascillidae</t>
   </si>
   <si>
@@ -283,24 +238,12 @@
     <t>Oligocheata</t>
   </si>
   <si>
-    <t>Gas.Planorbidae</t>
-  </si>
-  <si>
-    <t>Planorbidae</t>
-  </si>
-  <si>
-    <t>Gas.Physidae</t>
-  </si>
-  <si>
     <t>Physidae</t>
   </si>
   <si>
     <t>Ostracoda</t>
   </si>
   <si>
-    <t>Rotifera</t>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
@@ -328,9 +271,6 @@
     <t>Trichoptera</t>
   </si>
   <si>
-    <t>Unionioda</t>
-  </si>
-  <si>
     <t>Veneroida</t>
   </si>
   <si>
@@ -364,9 +304,6 @@
     <t>Hydrozoa</t>
   </si>
   <si>
-    <t>Lepidoptera</t>
-  </si>
-  <si>
     <t>Arguloida</t>
   </si>
   <si>
@@ -385,39 +322,12 @@
     <t>Dip.Ceratopogonidae</t>
   </si>
   <si>
-    <t>Col.Dytiscidae</t>
-  </si>
-  <si>
-    <t>Dytiscidae</t>
-  </si>
-  <si>
-    <t>Basommatophora</t>
-  </si>
-  <si>
-    <t>Hygrophila</t>
-  </si>
-  <si>
-    <t>Shell.less.gastropod</t>
-  </si>
-  <si>
     <t>Eph.Tricorythidae</t>
   </si>
   <si>
     <t>Copepoda.Cyclopoida</t>
   </si>
   <si>
-    <t>Dip.Ephydridae</t>
-  </si>
-  <si>
-    <t>Dip.Ptychopteridae</t>
-  </si>
-  <si>
-    <t>Ephydridae</t>
-  </si>
-  <si>
-    <t>Ptychopteridae</t>
-  </si>
-  <si>
     <t>benthic</t>
   </si>
   <si>
@@ -1183,27 +1093,15 @@
     <t>LHS</t>
   </si>
   <si>
-    <t>Dip.Chaoboridae</t>
-  </si>
-  <si>
-    <t>ANTS</t>
-  </si>
-  <si>
     <t>FLAT WORMS</t>
   </si>
   <si>
-    <t>ISOPOD</t>
-  </si>
-  <si>
     <t>Turbellaria</t>
   </si>
   <si>
     <t>Planariidae</t>
   </si>
   <si>
-    <t>Chaoboridae</t>
-  </si>
-  <si>
     <t>Genus</t>
   </si>
   <si>
@@ -1676,6 +1574,12 @@
   </si>
   <si>
     <t>T.MatSize</t>
+  </si>
+  <si>
+    <t>Trait.Source</t>
+  </si>
+  <si>
+    <t>IDGenus</t>
   </si>
 </sst>
 </file>
@@ -1776,13 +1680,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2109,128 +2013,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.36328125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="3" max="4" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="F1" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
       <c r="G1" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
       <c r="H1" t="s">
-        <v>547</v>
+        <v>513</v>
       </c>
       <c r="I1" t="s">
-        <v>548</v>
+        <v>514</v>
       </c>
       <c r="J1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>515</v>
+      </c>
+      <c r="K1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>263</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>293</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>293</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2248,21 +2155,21 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -2271,7 +2178,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -2280,109 +2187,145 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>4</v>
+      </c>
+      <c r="H10" s="8">
+        <v>3</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -2390,1063 +2333,621 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="8">
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="8">
         <v>3</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="8">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12">
         <v>2</v>
       </c>
-      <c r="J11" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="8">
+        <v>4</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="I12" s="8">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="8">
         <v>4</v>
       </c>
       <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
         <v>2</v>
       </c>
-      <c r="I13" s="8">
-        <v>2</v>
-      </c>
-      <c r="J13" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4</v>
-      </c>
-      <c r="H14" s="8">
-        <v>3</v>
-      </c>
-      <c r="I14" s="8">
-        <v>1</v>
-      </c>
       <c r="J14" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="8">
-        <v>4</v>
-      </c>
-      <c r="H15" s="8">
-        <v>3</v>
-      </c>
-      <c r="I15" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="8">
-        <v>4</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>290</v>
+        <v>1</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1</v>
       </c>
       <c r="I16" s="8">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>77</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>5</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
         <v>77</v>
       </c>
-      <c r="D18" t="s">
-        <v>96</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="8">
+        <v>2</v>
+      </c>
+      <c r="H18" s="8">
         <v>4</v>
       </c>
-      <c r="H18" s="8">
-        <v>1</v>
-      </c>
       <c r="I18" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
         <v>77</v>
       </c>
-      <c r="D19" t="s">
-        <v>96</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8">
         <v>4</v>
       </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19">
+      <c r="I19" s="8">
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
         <v>77</v>
       </c>
-      <c r="D20" t="s">
-        <v>96</v>
-      </c>
       <c r="E20">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="H20" s="8">
+        <v>4</v>
+      </c>
+      <c r="I20" s="8">
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
         <v>77</v>
-      </c>
-      <c r="D21" t="s">
-        <v>96</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I21" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>66</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" s="8">
+        <v>4</v>
+      </c>
+      <c r="H22" s="8">
+        <v>3</v>
+      </c>
+      <c r="I22" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" s="8">
         <v>3</v>
       </c>
-      <c r="H23" s="8">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8">
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
         <v>2</v>
-      </c>
-      <c r="J23" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" s="8">
-        <v>5</v>
-      </c>
-      <c r="H24" s="8">
-        <v>1</v>
-      </c>
-      <c r="I24" s="8">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>540</v>
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25" s="8">
-        <v>2</v>
-      </c>
-      <c r="H25" s="8">
-        <v>4</v>
-      </c>
-      <c r="I25" s="8">
-        <v>3</v>
-      </c>
-      <c r="J25" t="s">
-        <v>540</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26" s="8">
-        <v>1</v>
-      </c>
-      <c r="H26" s="8">
-        <v>4</v>
-      </c>
-      <c r="I26" s="8">
-        <v>2</v>
-      </c>
-      <c r="J26" t="s">
-        <v>540</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27">
-        <v>2.5</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27" s="8">
-        <v>4</v>
-      </c>
-      <c r="H27" s="8">
-        <v>4</v>
-      </c>
-      <c r="I27" s="8">
-        <v>3</v>
-      </c>
-      <c r="J27" t="s">
-        <v>540</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28" s="8">
-        <v>4</v>
-      </c>
-      <c r="H28" s="8">
-        <v>4</v>
-      </c>
-      <c r="I28" s="8">
-        <v>3</v>
-      </c>
-      <c r="J28" t="s">
-        <v>540</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29" s="8">
-        <v>4</v>
-      </c>
-      <c r="H29" s="8">
-        <v>3</v>
-      </c>
-      <c r="I29" s="8">
-        <v>2</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-      <c r="G30">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>4</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="I31">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C34" t="s">
+        <v>497</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B35" t="s">
+        <v>400</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35">
         <v>2</v>
       </c>
-      <c r="F32">
-        <v>4</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
+      <c r="F35">
         <v>2</v>
       </c>
-      <c r="I32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>33</v>
+      <c r="G35" t="s">
+        <v>508</v>
+      </c>
+      <c r="H35" t="s">
+        <v>509</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
+        <v>503</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>504</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="D37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" t="s">
-        <v>94</v>
-      </c>
-      <c r="H44">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" t="s">
-        <v>103</v>
-      </c>
-      <c r="H45">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" t="s">
-        <v>65</v>
-      </c>
-      <c r="D47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" t="s">
-        <v>121</v>
-      </c>
-      <c r="D49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" t="s">
-        <v>121</v>
-      </c>
-      <c r="D51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B52" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B53" t="s">
-        <v>119</v>
-      </c>
-      <c r="C53" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" t="s">
-        <v>95</v>
-      </c>
-      <c r="D55" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B56" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D56" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B57" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="B58" t="s">
-        <v>390</v>
-      </c>
-      <c r="C58" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" s="11" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A60" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C60" t="s">
-        <v>531</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A61" s="11" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A62" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="B62" t="s">
-        <v>434</v>
-      </c>
-      <c r="C62" t="s">
-        <v>98</v>
-      </c>
-      <c r="D62" t="s">
-        <v>96</v>
-      </c>
-      <c r="E62">
-        <v>2</v>
-      </c>
-      <c r="F62">
-        <v>2</v>
-      </c>
-      <c r="G62" t="s">
-        <v>542</v>
-      </c>
-      <c r="H62" t="s">
-        <v>543</v>
-      </c>
-      <c r="I62">
-        <v>2</v>
-      </c>
-      <c r="J62" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A63" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="B63" t="s">
-        <v>538</v>
-      </c>
-      <c r="C63" t="s">
-        <v>98</v>
-      </c>
-      <c r="D63" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3472,45 +2973,45 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="C1" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="D1" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="E1" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="F1" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="G1" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G33" si="0">IF(D2="",0,1)</f>
@@ -3519,22 +3020,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
@@ -3543,19 +3044,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="E4" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
@@ -3564,22 +3065,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="C5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="D5" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="E5" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="F5" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
@@ -3588,22 +3089,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
@@ -3612,22 +3113,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -3636,22 +3137,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="C8" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -3660,22 +3161,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -3684,19 +3185,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="C10" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="E10" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="F10" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -3705,22 +3206,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="C11" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -3729,22 +3230,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="C12" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -3753,22 +3254,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="C13" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
@@ -3777,22 +3278,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="C14" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
@@ -3801,22 +3302,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="C15" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
@@ -3825,19 +3326,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="C16" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
@@ -3846,19 +3347,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="E17" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
@@ -3867,19 +3368,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="E18" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
@@ -3888,19 +3389,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="E19" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
@@ -3909,22 +3410,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="C20" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E20" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
@@ -3933,22 +3434,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="C21" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="F21" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
@@ -3957,22 +3458,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="C22" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E22" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
@@ -3981,22 +3482,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="C23" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D23" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
@@ -4005,22 +3506,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C24" t="s">
-        <v>213</v>
-      </c>
       <c r="D24" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="E24" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
@@ -4029,22 +3530,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="D25" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="E25" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="F25" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
@@ -4053,22 +3554,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="C26" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D26" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="E26" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="F26" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
@@ -4077,22 +3578,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="C27" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="D27" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="E27" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
@@ -4101,22 +3602,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="C28" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="D28" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="E28" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
@@ -4125,22 +3626,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="C29" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D29" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="E29" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="F29" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
@@ -4149,22 +3650,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="C30" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="F30" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
@@ -4173,22 +3674,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="C31" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="E31" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="F31" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
@@ -4197,22 +3698,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="D32" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="F32" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
@@ -4221,22 +3722,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="C33" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="D33" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="E33" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="F33" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
@@ -4245,22 +3746,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="C34" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E34" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="F34" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G52" si="1">IF(D34="",0,1)</f>
@@ -4269,22 +3770,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="C35" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E35" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="F35" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
@@ -4293,19 +3794,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="C36" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="E36" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="F36" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
@@ -4314,19 +3815,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="E37" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="F37" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
@@ -4335,22 +3836,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="E38" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="F38" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
@@ -4359,22 +3860,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="C39" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="D39" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="E39" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="F39" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G39">
         <f t="shared" si="1"/>
@@ -4383,22 +3884,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E40" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="F40" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G40">
         <f t="shared" si="1"/>
@@ -4407,22 +3908,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" t="s">
         <v>134</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C41" t="s">
-        <v>164</v>
-      </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E41" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="F41" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G41">
         <f t="shared" si="1"/>
@@ -4431,22 +3932,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="D42" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="E42" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="F42" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G42">
         <f t="shared" si="1"/>
@@ -4455,22 +3956,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="E43" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="F43" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G43">
         <f t="shared" si="1"/>
@@ -4479,22 +3980,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="F44" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G44">
         <f t="shared" si="1"/>
@@ -4503,22 +4004,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="F45" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G45">
         <f t="shared" si="1"/>
@@ -4527,22 +4028,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="C46" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="F46" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G46">
         <f t="shared" si="1"/>
@@ -4551,22 +4052,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="F47" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G47">
         <f t="shared" si="1"/>
@@ -4575,22 +4076,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="F48" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G48">
         <f t="shared" si="1"/>
@@ -4599,22 +4100,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="D49" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E49" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="F49" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G49">
         <f t="shared" si="1"/>
@@ -4623,19 +4124,19 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="F50" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G50">
         <f t="shared" si="1"/>
@@ -4644,19 +4145,19 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E51" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="F51" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G51">
         <f t="shared" si="1"/>
@@ -4665,22 +4166,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="C52" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D52" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E52" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="F52" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G52">
         <f t="shared" si="1"/>
@@ -4708,24 +4209,24 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="E2" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="F2" t="s">
-        <v>539</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -4739,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -4748,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -4762,7 +4263,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -4771,12 +4272,12 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4794,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -4808,7 +4309,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -4817,7 +4318,7 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -4845,7 +4346,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -4868,7 +4369,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -4896,7 +4397,7 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -4906,7 +4407,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -4926,7 +4427,7 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -4946,7 +4447,7 @@
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -4966,7 +4467,7 @@
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -4983,16 +4484,16 @@
         <v>4</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -5010,12 +4511,12 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -5033,12 +4534,12 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -5056,12 +4557,12 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -5079,17 +4580,17 @@
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -5106,7 +4607,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -5126,7 +4627,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -5143,7 +4644,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>541</v>
+        <v>507</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -5160,7 +4661,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="B27">
         <v>2.5</v>
@@ -5177,7 +4678,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -5194,7 +4695,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D29" s="8">
         <v>4</v>
@@ -5205,7 +4706,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -5217,7 +4718,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -5232,7 +4733,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -5247,73 +4748,73 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="E44">
         <v>6</v>
@@ -5322,7 +4823,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="E45">
         <v>6</v>
@@ -5331,7 +4832,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="H46" s="5"/>
     </row>
@@ -5352,253 +4853,253 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="B1" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="C1" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="B2" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="C2" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="C3" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="B4" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="C4" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="C5" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="B6" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="C6" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="B7" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="C7" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="B8" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="C8" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="C10" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="B11" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="C11" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="B13" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="C13" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="B14" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="C14" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="B16" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="C16" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="B17" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="C17" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="B18" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="C18" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="B19" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="C19" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="B20" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="C20" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="B21" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="C21" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="C22" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="B23" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="C23" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="B25" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="C25" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -5623,304 +5124,304 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="D1" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>381</v>
+      <c r="A2" s="10" t="s">
+        <v>351</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>379</v>
+        <v>350</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>349</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>377</v>
-      </c>
-      <c r="D3" s="10"/>
+        <v>347</v>
+      </c>
+      <c r="D3" s="11"/>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>375</v>
-      </c>
-      <c r="D4" s="10"/>
+        <v>345</v>
+      </c>
+      <c r="D4" s="11"/>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>373</v>
+      <c r="A5" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>372</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>371</v>
+        <v>342</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>341</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>369</v>
-      </c>
-      <c r="D6" s="10"/>
+        <v>339</v>
+      </c>
+      <c r="D6" s="11"/>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>367</v>
-      </c>
-      <c r="D7" s="10"/>
+        <v>337</v>
+      </c>
+      <c r="D7" s="11"/>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>365</v>
+      <c r="A8" s="10" t="s">
+        <v>335</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>364</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>363</v>
+        <v>334</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>333</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>361</v>
-      </c>
-      <c r="D9" s="10"/>
+        <v>331</v>
+      </c>
+      <c r="D9" s="11"/>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>359</v>
+      <c r="A10" s="10" t="s">
+        <v>329</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>358</v>
-      </c>
-      <c r="D10" s="10"/>
+        <v>328</v>
+      </c>
+      <c r="D10" s="11"/>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>356</v>
-      </c>
-      <c r="D11" s="10"/>
+        <v>326</v>
+      </c>
+      <c r="D11" s="11"/>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>354</v>
-      </c>
-      <c r="D12" s="10"/>
+        <v>324</v>
+      </c>
+      <c r="D12" s="11"/>
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>352</v>
-      </c>
-      <c r="D13" s="10"/>
+        <v>322</v>
+      </c>
+      <c r="D13" s="11"/>
       <c r="E13">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
-        <v>350</v>
+      <c r="A14" s="10" t="s">
+        <v>320</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>345</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>349</v>
+        <v>315</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>319</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
+      <c r="A15" s="10"/>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>343</v>
-      </c>
-      <c r="D15" s="10"/>
+        <v>313</v>
+      </c>
+      <c r="D15" s="11"/>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>346</v>
+      <c r="A16" s="10" t="s">
+        <v>316</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>345</v>
-      </c>
-      <c r="D16" s="10"/>
+        <v>315</v>
+      </c>
+      <c r="D16" s="11"/>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>343</v>
-      </c>
-      <c r="D17" s="10"/>
+        <v>313</v>
+      </c>
+      <c r="D17" s="11"/>
       <c r="E17">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D18" s="10"/>
+      <c r="D18" s="11"/>
       <c r="E18">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D19" s="10"/>
+      <c r="D19" s="11"/>
       <c r="E19">
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -5928,7 +5429,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -5965,36 +5466,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="D1" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="E1" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="F1" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="D2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2" t="s">
         <v>394</v>
-      </c>
-      <c r="E2" t="s">
-        <v>428</v>
       </c>
       <c r="F2">
         <v>1979</v>
@@ -6002,13 +5503,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="C3" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="E3" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F3">
         <v>1979</v>
@@ -6016,16 +5517,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="C4" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="D4" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="E4" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F4">
         <v>1979</v>
@@ -6033,16 +5534,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="C5" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="D5" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="E5" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F5">
         <v>1979</v>
@@ -6050,16 +5551,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="C6" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="D6" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="E6" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F6">
         <v>1979</v>
@@ -6067,16 +5568,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="D7" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="E7" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F7">
         <v>1979</v>
@@ -6084,13 +5585,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="E8" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F8">
         <v>1979</v>
@@ -6098,16 +5599,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="D9" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="E9" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F9">
         <v>1979</v>
@@ -6115,13 +5616,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="E10" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F10">
         <v>1979</v>
@@ -6129,13 +5630,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="E11" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F11">
         <v>1979</v>
@@ -6143,13 +5644,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F12">
         <v>1979</v>
@@ -6157,13 +5658,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="E13" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F13">
         <v>1979</v>
@@ -6171,13 +5672,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="E14" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F14">
         <v>1979</v>
@@ -6185,13 +5686,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="E15" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F15">
         <v>1979</v>
@@ -6199,13 +5700,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="E16" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F16">
         <v>1979</v>
@@ -6213,13 +5714,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="E17" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F17">
         <v>1979</v>
@@ -6227,16 +5728,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="D18" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="E18" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F18">
         <v>1979</v>
@@ -6244,16 +5745,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="D19" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="E19" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F19">
         <v>1979</v>
@@ -6261,13 +5762,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="E20" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F20">
         <v>1979</v>
@@ -6275,13 +5776,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="E21" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F21">
         <v>1979</v>
@@ -6289,13 +5790,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="E22" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F22">
         <v>1979</v>
@@ -6303,13 +5804,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
       <c r="E23" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F23">
         <v>1979</v>
@@ -6317,13 +5818,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="E24" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F24">
         <v>1979</v>
@@ -6331,13 +5832,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="E25" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F25">
         <v>1979</v>
@@ -6345,16 +5846,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="D26" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="E26" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F26">
         <v>1979</v>
@@ -6362,13 +5863,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="E27" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F27">
         <v>1979</v>
@@ -6376,13 +5877,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="E28" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F28">
         <v>1979</v>
@@ -6390,13 +5891,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="E29" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F29">
         <v>1979</v>
@@ -6404,441 +5905,441 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="C30" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="E30" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="F30">
         <v>2008</v>
       </c>
       <c r="G30" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="E31" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="F31">
         <v>2008</v>
       </c>
       <c r="G31" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="C32" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="E32" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="F32">
         <v>2008</v>
       </c>
       <c r="G32" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="C33" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="E33" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="F33">
         <v>2008</v>
       </c>
       <c r="G33" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="E34" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="F34">
         <v>2008</v>
       </c>
       <c r="G34" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E35" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="F35">
         <v>2008</v>
       </c>
       <c r="G35" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="E36" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="F36">
         <v>2008</v>
       </c>
       <c r="G36" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="E37" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="F37">
         <v>2008</v>
       </c>
       <c r="G37" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E38" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="F38">
         <v>2008</v>
       </c>
       <c r="G38" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="E39" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="F39">
         <v>2008</v>
       </c>
       <c r="G39" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="E40" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="F40">
         <v>2008</v>
       </c>
       <c r="G40" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
       <c r="E41" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="F41">
         <v>2008</v>
       </c>
       <c r="G41" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
       <c r="E42" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="F42">
         <v>2008</v>
       </c>
       <c r="G42" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="C43" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="E43" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="F43">
         <v>2008</v>
       </c>
       <c r="G43" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="C44" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="E44" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="F44">
         <v>2008</v>
       </c>
       <c r="G44" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="E45" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="F45">
         <v>2008</v>
       </c>
       <c r="G45" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="C46" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="E46" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="F46">
         <v>2008</v>
       </c>
       <c r="G46" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="C47" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="E47" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="F47">
         <v>2008</v>
       </c>
       <c r="G47" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="C48" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="E48" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="F48">
         <v>2008</v>
       </c>
       <c r="G48" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="E49" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="F49">
         <v>2008</v>
       </c>
       <c r="G49" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="C50" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="E50" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="F50">
         <v>2008</v>
       </c>
       <c r="G50" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="C51" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="E51" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="F51">
         <v>2008</v>
       </c>
       <c r="G51" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>526</v>
+        <v>492</v>
       </c>
       <c r="C52" t="s">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="E52" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F52">
         <v>2004</v>
@@ -6846,16 +6347,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>527</v>
+        <v>493</v>
       </c>
       <c r="C53" t="s">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="E53" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F53">
         <v>2004</v>
@@ -6863,16 +6364,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C54" t="s">
-        <v>522</v>
+        <v>488</v>
       </c>
       <c r="E54" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F54">
         <v>2004</v>
@@ -6880,16 +6381,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>521</v>
+        <v>487</v>
       </c>
       <c r="E55" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F55">
         <v>2004</v>
@@ -6897,16 +6398,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C56" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="E56" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F56">
         <v>2004</v>
@@ -6914,16 +6415,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>520</v>
+        <v>486</v>
       </c>
       <c r="E57" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F57">
         <v>2004</v>
@@ -6931,16 +6432,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>519</v>
+        <v>485</v>
       </c>
       <c r="E58" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F58">
         <v>2004</v>
@@ -6948,13 +6449,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="C59" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="E59" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F59">
         <v>2004</v>
@@ -6962,10 +6463,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="E60" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F60">
         <v>2004</v>
@@ -6973,10 +6474,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C61" t="s">
-        <v>518</v>
+        <v>484</v>
       </c>
       <c r="E61" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F61">
         <v>2004</v>
@@ -6984,10 +6485,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
-        <v>517</v>
+        <v>483</v>
       </c>
       <c r="E62" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F62">
         <v>2004</v>
@@ -6995,10 +6496,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C63" t="s">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="E63" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F63">
         <v>2004</v>
@@ -7006,10 +6507,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C64" t="s">
-        <v>515</v>
+        <v>481</v>
       </c>
       <c r="E64" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F64">
         <v>2004</v>
@@ -7017,13 +6518,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="E65" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F65">
         <v>2004</v>
@@ -7031,16 +6532,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>528</v>
+        <v>494</v>
       </c>
       <c r="C66" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="E66" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F66">
         <v>2004</v>
@@ -7048,16 +6549,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>529</v>
+        <v>495</v>
       </c>
       <c r="C67" t="s">
-        <v>513</v>
+        <v>479</v>
       </c>
       <c r="E67" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F67">
         <v>2004</v>
@@ -7065,16 +6566,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>530</v>
+        <v>496</v>
       </c>
       <c r="C68" t="s">
-        <v>512</v>
+        <v>478</v>
       </c>
       <c r="E68" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F68">
         <v>2004</v>
@@ -7082,16 +6583,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C69" t="s">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="E69" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F69">
         <v>2004</v>
@@ -7099,16 +6600,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C70" t="s">
-        <v>510</v>
+        <v>476</v>
       </c>
       <c r="E70" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F70">
         <v>2004</v>
@@ -7116,16 +6617,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C71" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="E71" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F71">
         <v>2004</v>
@@ -7133,16 +6634,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C72" t="s">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="E72" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F72">
         <v>2004</v>
@@ -7150,13 +6651,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B73" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
       <c r="E73" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F73">
         <v>2004</v>
@@ -7164,10 +6665,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
-        <v>506</v>
+        <v>472</v>
       </c>
       <c r="E74" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F74">
         <v>2004</v>
@@ -7175,10 +6676,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="E75" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F75">
         <v>2004</v>
@@ -7186,10 +6687,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
-        <v>504</v>
+        <v>470</v>
       </c>
       <c r="E76" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F76">
         <v>2004</v>
@@ -7197,36 +6698,36 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
       <c r="B77" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="C77" t="s">
-        <v>503</v>
+        <v>469</v>
       </c>
       <c r="E77" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F77">
         <v>2004</v>
       </c>
       <c r="G77" t="s">
-        <v>533</v>
+        <v>499</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C78" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="E78" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F78">
         <v>2004</v>
@@ -7234,16 +6735,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>501</v>
+        <v>467</v>
       </c>
       <c r="E79" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F79">
         <v>2004</v>
@@ -7251,10 +6752,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C80" t="s">
-        <v>500</v>
+        <v>466</v>
       </c>
       <c r="E80" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F80">
         <v>2004</v>
@@ -7262,16 +6763,16 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B81" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C81" t="s">
-        <v>499</v>
+        <v>465</v>
       </c>
       <c r="E81" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F81">
         <v>2004</v>
@@ -7279,56 +6780,56 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B82" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C82" t="s">
-        <v>498</v>
+        <v>464</v>
       </c>
       <c r="E82" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F82">
         <v>2004</v>
       </c>
       <c r="G82" t="s">
-        <v>534</v>
+        <v>500</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C83" t="s">
-        <v>497</v>
+        <v>463</v>
       </c>
       <c r="E83" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F83">
         <v>2004</v>
       </c>
       <c r="G83" t="s">
-        <v>534</v>
+        <v>500</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B84" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C84" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="E84" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F84">
         <v>2004</v>
@@ -7336,13 +6837,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="C85" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="E85" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F85">
         <v>2004</v>
@@ -7350,13 +6851,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="C86" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="E86" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F86">
         <v>2004</v>
@@ -7364,16 +6865,16 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B87" t="s">
-        <v>535</v>
+        <v>501</v>
       </c>
       <c r="C87" t="s">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="E87" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F87">
         <v>2004</v>
@@ -7381,16 +6882,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B88" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C88" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="E88" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F88">
         <v>2004</v>
@@ -7398,16 +6899,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B89" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C89" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="E89" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F89">
         <v>2004</v>
@@ -7415,10 +6916,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C90" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
       <c r="E90" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F90">
         <v>2004</v>
@@ -7426,10 +6927,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C91" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="E91" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F91">
         <v>2004</v>
@@ -7437,10 +6938,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C92" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="E92" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F92">
         <v>2004</v>
@@ -7448,10 +6949,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C93" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="E93" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F93">
         <v>2004</v>
@@ -7459,10 +6960,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C94" t="s">
-        <v>487</v>
+        <v>453</v>
       </c>
       <c r="E94" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F94">
         <v>2004</v>
@@ -7470,10 +6971,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C95" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="E95" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F95">
         <v>2004</v>
@@ -7481,10 +6982,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C96" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="E96" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F96">
         <v>2004</v>
@@ -7492,10 +6993,10 @@
     </row>
     <row r="97" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C97" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="E97" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F97">
         <v>2004</v>
@@ -7503,10 +7004,10 @@
     </row>
     <row r="98" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C98" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="E98" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F98">
         <v>2004</v>
@@ -7514,10 +7015,10 @@
     </row>
     <row r="99" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C99" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="E99" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F99">
         <v>2004</v>
@@ -7525,10 +7026,10 @@
     </row>
     <row r="100" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C100" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E100" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F100">
         <v>2004</v>
@@ -7536,10 +7037,10 @@
     </row>
     <row r="101" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C101" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="E101" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F101">
         <v>2004</v>
@@ -7547,10 +7048,10 @@
     </row>
     <row r="102" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C102" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E102" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F102">
         <v>2004</v>
@@ -7558,10 +7059,10 @@
     </row>
     <row r="103" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C103" t="s">
-        <v>481</v>
+        <v>447</v>
       </c>
       <c r="E103" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F103">
         <v>2004</v>
@@ -7569,10 +7070,10 @@
     </row>
     <row r="104" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C104" t="s">
-        <v>480</v>
+        <v>446</v>
       </c>
       <c r="E104" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F104">
         <v>2004</v>
@@ -7580,10 +7081,10 @@
     </row>
     <row r="105" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C105" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="E105" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F105">
         <v>2004</v>
@@ -7591,10 +7092,10 @@
     </row>
     <row r="106" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C106" t="s">
-        <v>479</v>
+        <v>445</v>
       </c>
       <c r="E106" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F106">
         <v>2004</v>
@@ -7602,10 +7103,10 @@
     </row>
     <row r="107" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C107" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="E107" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F107">
         <v>2004</v>
@@ -7613,10 +7114,10 @@
     </row>
     <row r="108" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C108" t="s">
-        <v>478</v>
+        <v>444</v>
       </c>
       <c r="E108" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F108">
         <v>2004</v>
@@ -7624,10 +7125,10 @@
     </row>
     <row r="109" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C109" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="E109" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F109">
         <v>2004</v>
@@ -7635,10 +7136,10 @@
     </row>
     <row r="110" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C110" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="E110" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F110">
         <v>2004</v>
@@ -7646,10 +7147,10 @@
     </row>
     <row r="111" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C111" t="s">
-        <v>477</v>
+        <v>443</v>
       </c>
       <c r="E111" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F111">
         <v>2004</v>
@@ -7657,10 +7158,10 @@
     </row>
     <row r="112" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C112" t="s">
-        <v>476</v>
+        <v>442</v>
       </c>
       <c r="E112" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F112">
         <v>2004</v>
@@ -7668,10 +7169,10 @@
     </row>
     <row r="113" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C113" t="s">
-        <v>475</v>
+        <v>441</v>
       </c>
       <c r="E113" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F113">
         <v>2004</v>
@@ -7679,10 +7180,10 @@
     </row>
     <row r="114" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C114" t="s">
-        <v>474</v>
+        <v>440</v>
       </c>
       <c r="E114" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F114">
         <v>2004</v>
@@ -7690,10 +7191,10 @@
     </row>
     <row r="115" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C115" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="E115" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F115">
         <v>2004</v>
@@ -7701,10 +7202,10 @@
     </row>
     <row r="116" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C116" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="E116" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F116">
         <v>2004</v>
@@ -7712,10 +7213,10 @@
     </row>
     <row r="117" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C117" t="s">
-        <v>471</v>
+        <v>437</v>
       </c>
       <c r="E117" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F117">
         <v>2004</v>
@@ -7723,10 +7224,10 @@
     </row>
     <row r="118" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C118" t="s">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="E118" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F118">
         <v>2004</v>
@@ -7734,10 +7235,10 @@
     </row>
     <row r="119" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C119" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
       <c r="E119" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F119">
         <v>2004</v>
@@ -7745,10 +7246,10 @@
     </row>
     <row r="120" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C120" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="E120" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F120">
         <v>2004</v>
@@ -7756,10 +7257,10 @@
     </row>
     <row r="121" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C121" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="E121" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F121">
         <v>2004</v>
@@ -7767,10 +7268,10 @@
     </row>
     <row r="122" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C122" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="E122" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F122">
         <v>2004</v>
@@ -7778,10 +7279,10 @@
     </row>
     <row r="123" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C123" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="E123" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F123">
         <v>2004</v>
@@ -7789,10 +7290,10 @@
     </row>
     <row r="124" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C124" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="E124" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F124">
         <v>2004</v>
@@ -7800,10 +7301,10 @@
     </row>
     <row r="125" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C125" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="E125" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F125">
         <v>2004</v>
@@ -7811,10 +7312,10 @@
     </row>
     <row r="126" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C126" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="E126" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F126">
         <v>2004</v>
@@ -7822,10 +7323,10 @@
     </row>
     <row r="127" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C127" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="E127" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F127">
         <v>2004</v>
@@ -7833,10 +7334,10 @@
     </row>
     <row r="128" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C128" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="E128" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F128">
         <v>2004</v>
@@ -7844,10 +7345,10 @@
     </row>
     <row r="129" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C129" t="s">
-        <v>464</v>
+        <v>430</v>
       </c>
       <c r="E129" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F129">
         <v>2004</v>
@@ -7855,10 +7356,10 @@
     </row>
     <row r="130" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C130" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="E130" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F130">
         <v>2004</v>
@@ -7866,10 +7367,10 @@
     </row>
     <row r="131" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C131" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="E131" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F131">
         <v>2004</v>
@@ -7877,10 +7378,10 @@
     </row>
     <row r="132" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C132" t="s">
-        <v>463</v>
+        <v>429</v>
       </c>
       <c r="E132" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F132">
         <v>2004</v>
@@ -7888,10 +7389,10 @@
     </row>
     <row r="133" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C133" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="E133" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F133">
         <v>2004</v>
@@ -7899,10 +7400,10 @@
     </row>
     <row r="134" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C134" t="s">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="E134" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F134">
         <v>2004</v>
@@ -7910,10 +7411,10 @@
     </row>
     <row r="135" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C135" t="s">
-        <v>460</v>
+        <v>426</v>
       </c>
       <c r="E135" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F135">
         <v>2004</v>
@@ -7921,10 +7422,10 @@
     </row>
     <row r="136" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C136" t="s">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="E136" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F136">
         <v>2004</v>
@@ -7932,10 +7433,10 @@
     </row>
     <row r="137" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C137" t="s">
-        <v>458</v>
+        <v>424</v>
       </c>
       <c r="E137" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F137">
         <v>2004</v>
@@ -7943,10 +7444,10 @@
     </row>
     <row r="138" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C138" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
       <c r="E138" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F138">
         <v>2004</v>
@@ -7954,10 +7455,10 @@
     </row>
     <row r="139" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C139" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="E139" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F139">
         <v>2004</v>
@@ -7965,10 +7466,10 @@
     </row>
     <row r="140" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C140" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="E140" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F140">
         <v>2004</v>
@@ -7976,10 +7477,10 @@
     </row>
     <row r="141" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C141" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="E141" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F141">
         <v>2004</v>
@@ -7987,10 +7488,10 @@
     </row>
     <row r="142" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C142" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="E142" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F142">
         <v>2004</v>
